--- a/data/trans_camb/P32C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 2,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 0,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; -1,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 1,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 13,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,49; 1,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 0,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 3,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,34%</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,82; 157,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 108,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,43; 113,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 27,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,74; 250,46</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 1,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 1,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; -1,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; -0,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 1,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 1,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 0,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 1,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; -0,62</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,81%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,22; 132,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,76; 152,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,47; 54,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,87; 125,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -12,13</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 3,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 1,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 2,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 2,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 2,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 1,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 1,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>252,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,1%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,12; 1258,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 873,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,61; 1009,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,1; 488,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,25; 931,27</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 3,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 1,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 1,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 2,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 2,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 1,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 0,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,9%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,05; 1096,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 452,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,06; 606,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,45; 472,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,6; 342,66</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 0,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,18; 2,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 2,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 4,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 1,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 1,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 1,91</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-67,18%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-19,37%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-25,74%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,97%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,98%</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 52,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,31; 147,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,1; 144,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,68; 111,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,23; 179,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,51; 158,89</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 1,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 2,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 1,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 1,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,95; 1,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 1,18</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>-23,12%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,38%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,26%</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,56; 451,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,79; 370,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,23; 331,23</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,1; 239,88</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 0,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 0,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 0,01</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 0,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 0,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,25</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,17%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,07%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,91%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,64%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,2%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,44; 67,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,39; 39,83</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,52; 9,77</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 37,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,14; 107,51</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,72; 225,6</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,18; 36,61</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,12; 23,35</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,76; 21,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 13,2</t>
+          <t>-1,13; 12,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,0</t>
+          <t>-2,56; 2,24</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>208,65%</t>
+          <t>202,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,34%</t>
+          <t>-33,83%</t>
         </is>
       </c>
     </row>
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-97,74; 250,46</t>
+          <t>-97,93; 190,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-1,8</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,19</t>
+          <t>-3,7; 1,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; -0,62</t>
+          <t>-3,25; -0,66</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-63,59%</t>
+          <t>-64,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-87,81%</t>
+          <t>-88,65%</t>
         </is>
       </c>
     </row>
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -12,13</t>
+          <t>-100,0; -18,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,43</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,39</t>
+          <t>-0,89; 2,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,03</t>
+          <t>-0,91; 1,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,88</t>
+          <t>-0,53; 1,79</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,35%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>69,16%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 873,37</t>
+          <t>-100,0; 847,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,25; 931,27</t>
+          <t>-67,45; 907,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,46</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,13</t>
+          <t>-2,45; 1,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 0,63</t>
+          <t>-1,94; 0,6</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,88%</t>
+          <t>-24,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-42,9%</t>
+          <t>-44,05%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 452,57</t>
+          <t>-100,0; 436,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-98,6; 342,66</t>
+          <t>-98,47; 355,37</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,08</t>
+          <t>-3,93; 2,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,35</t>
+          <t>0,47; 4,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,91</t>
+          <t>-2,83; 1,94</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-25,74%</t>
+          <t>-24,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-6,98%</t>
+          <t>-6,21%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,1; 144,2</t>
+          <t>-74,72; 147,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-72,51; 158,89</t>
+          <t>-72,37; 160,03</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,22 +1737,22 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,72</t>
+          <t>-0,58; 4,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,35</t>
+          <t>-0,6; 4,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,94</t>
+          <t>-0,74; 2,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,2</t>
+          <t>-0,5; 3,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,51</t>
+          <t>-0,67; 2,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,18</t>
+          <t>-1,85; 1,26</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-23,12%</t>
+          <t>240,03%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>193,94%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>171,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1848,17 +1848,17 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-29,38%</t>
+          <t>206,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-5,12%</t>
+          <t>159,9%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>54,75%</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 451,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 370,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-85,23; 331,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-79,1; 239,88</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,02</t>
+          <t>-9,83; -1,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,55</t>
+          <t>-7,41; 1,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,11</t>
+          <t>-7,43; 2,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,2</t>
+          <t>0,0; 7,89</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,47</t>
+          <t>-8,32; -0,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,28</t>
+          <t>-6,28; 1,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,25</t>
+          <t>-5,47; 2,29</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>-46,54%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-34,17%</t>
+          <t>-34,18%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-68,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-39,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-8,64%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-21,65%</t>
+          <t>-52,94%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-26,2%</t>
+          <t>-25,54%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-93,04; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 1,02</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 0,55</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 0,03</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 0,01</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 0,37</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 0,94</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 0,47</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 0,28</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 0,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-13,99%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-36,48%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-68,07%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-39,91%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-1,52%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-8,64%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-21,65%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-31,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-32,44; 67,96</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-48,39; 39,83</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-61,52; 9,77</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-62,66; 5,69</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-100,0; 37,17</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-86,14; 107,51</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-67,72; 225,6</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-73,96; 179,89</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-43,18; 36,61</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-51,12; 23,35</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-53,76; 21,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-58,09; 13,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P32C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 2,15</t>
+          <t>-3,18; 1,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,9</t>
+          <t>-3,83; 0,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -1,34</t>
+          <t>-5,33; -1,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,12</t>
+          <t>-3,62; 0,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,0</t>
+          <t>-5,05; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 12,56</t>
+          <t>-0,79; 12,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,1</t>
+          <t>-2,58; 1,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,04</t>
+          <t>-3,35; 0,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,24</t>
+          <t>-2,71; 2,55</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,82; 157,06</t>
+          <t>-76,97; 128,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 108,92</t>
+          <t>-90,77; 93,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,43; 113,58</t>
+          <t>-77,18; 75,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 27,18</t>
+          <t>-100,0; 36,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-97,93; 190,4</t>
+          <t>-97,82; 250,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,44</t>
+          <t>-2,26; 1,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,84</t>
+          <t>-2,15; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; -1,1</t>
+          <t>-3,99; -1,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,47</t>
+          <t>-5,05; -0,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,83</t>
+          <t>-3,09; 2,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,12</t>
+          <t>-3,93; 0,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,56</t>
+          <t>-2,29; 0,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,32</t>
+          <t>-1,79; 1,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; -0,66</t>
+          <t>-3,21; -0,78</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,22; 132,57</t>
+          <t>-74,58; 124,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,76; 152,75</t>
+          <t>-70,15; 160,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,47; 54,82</t>
+          <t>-77,26; 77,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,87; 125,15</t>
+          <t>-65,55; 107,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -18,54</t>
+          <t>-100,0; -8,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,64</t>
+          <t>0,36; 3,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,79</t>
+          <t>-0,83; 1,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,28</t>
+          <t>-0,83; 2,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,0</t>
+          <t>-2,3; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,0</t>
+          <t>-2,31; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,99</t>
+          <t>-0,91; 2,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 2,16</t>
+          <t>-0,08; 2,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,02</t>
+          <t>-0,81; 0,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,79</t>
+          <t>-0,5; 1,76</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,12; 1258,8</t>
+          <t>-16,84; 1389,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 847,48</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 1009,07</t>
+          <t>-30,96; 910,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-88,1; 488,87</t>
+          <t>-85,46; 447,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 907,61</t>
+          <t>-69,65; 768,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,52</t>
+          <t>-1,16; 3,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,35</t>
+          <t>-2,07; 1,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,07</t>
+          <t>-2,29; 1,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 0,0</t>
+          <t>-3,5; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,42</t>
+          <t>-1,68; 2,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,0</t>
+          <t>-3,24; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,08</t>
+          <t>-1,13; 2,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,31</t>
+          <t>-1,49; 1,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 0,6</t>
+          <t>-2,03; 0,65</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 1096,84</t>
+          <t>-66,14; 929,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 436,6</t>
+          <t>-100,0; 406,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 606,71</t>
+          <t>-70,76; 680,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-79,45; 472,35</t>
+          <t>-80,47; 440,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-98,47; 355,37</t>
+          <t>-100,0; 420,02</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,09</t>
+          <t>-5,72; 0,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,54</t>
+          <t>-4,25; 2,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 2,13</t>
+          <t>-4,71; 1,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,35</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,32</t>
+          <t>0,43; 4,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,02</t>
+          <t>-3,75; 0,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,75</t>
+          <t>-2,93; 1,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,94</t>
+          <t>-2,46; 1,75</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,62</t>
+          <t>-100,0; 33,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,31; 147,16</t>
+          <t>-76,88; 164,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-74,72; 147,44</t>
+          <t>-77,89; 140,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-89,68; 111,26</t>
+          <t>-88,2; 113,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-76,23; 179,22</t>
+          <t>-75,43; 192,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-72,37; 160,03</t>
+          <t>-62,62; 151,87</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,66</t>
+          <t>-0,54; 5,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,06</t>
+          <t>-0,7; 4,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,75</t>
+          <t>-0,84; 2,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,06</t>
+          <t>-0,9; 3,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,55</t>
+          <t>-0,65; 2,62</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,26</t>
+          <t>-1,85; 1,48</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -1,05</t>
+          <t>-10,79; -1,09</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,99</t>
+          <t>-7,87; 2,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,53</t>
+          <t>-7,25; 2,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,22 +2006,22 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,89</t>
+          <t>0,0; 8,61</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -0,91</t>
+          <t>-8,78; -0,9</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 1,65</t>
+          <t>-6,4; 1,41</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 2,29</t>
+          <t>-5,69; 2,08</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-93,04; —</t>
+          <t>-94,51; 273,26</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,02</t>
+          <t>-0,74; 1,01</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,55</t>
+          <t>-1,09; 0,55</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
+          <t>-1,51; 0,01</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
           <t>-1,48; 0,03</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 0,01</t>
-        </is>
-      </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,37</t>
+          <t>-1,27; 0,37</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,94</t>
+          <t>-1,06; 0,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,47</t>
+          <t>-0,8; 0,51</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,28</t>
+          <t>-0,93; 0,27</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,17</t>
+          <t>-1,14; 0,09</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 67,96</t>
+          <t>-31,5; 69,46</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 39,83</t>
+          <t>-47,65; 37,29</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-62,66; 5,69</t>
+          <t>-64,87; 4,48</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 37,17</t>
+          <t>-100,0; 69,9</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-86,14; 107,51</t>
+          <t>-82,97; 132,08</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-73,96; 179,89</t>
+          <t>-75,26; 193,9</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 36,61</t>
+          <t>-41,22; 41,85</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 23,35</t>
+          <t>-48,06; 25,16</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-58,09; 13,99</t>
+          <t>-59,56; 9,12</t>
         </is>
       </c>
     </row>
